--- a/SWE_Homework2/분업.xlsx
+++ b/SWE_Homework2/분업.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.0" lowestEdited="9.0" rupBuild="0.568"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="26115" windowHeight="12090"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12120"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Requirement List" sheetId="1" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <x:si>
     <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류등록 버튼 클릭</x:t>
   </x:si>
@@ -39,6 +39,9 @@
     <x:t>구매내역 조회 화면에서 하나의 제품을 선택하여 구매만족도 평가하기 버튼 클릭</x:t>
   </x:si>
   <x:si>
+    <x:t>판매 완료된 상품 내역 조회</x:t>
+  </x:si>
+  <x:si>
     <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도를 출력</x:t>
   </x:si>
   <x:si>
@@ -54,9 +57,6 @@
     <x:t>구매</x:t>
   </x:si>
   <x:si>
-    <x:t>판매 완료된 상품 내역 조회</x:t>
-  </x:si>
-  <x:si>
     <x:t>System Response</x:t>
   </x:si>
   <x:si>
@@ -238,6 +238,9 @@
   </x:si>
   <x:si>
     <x:t>희진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 통계 출력</x:t>
   </x:si>
   <x:si>
     <x:t>구매 버튼을 눌러 즉시 구매</x:t>
@@ -1466,7 +1469,7 @@
   <x:dimension ref="A1:E18"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="F9" activeCellId="0" sqref="F9:F9"/>
+      <x:selection activeCell="K9" activeCellId="0" sqref="K9:K9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -1486,7 +1489,7 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
         <x:v>32</x:v>
@@ -1563,7 +1566,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9">
         <x:v>2</x:v>
@@ -1588,10 +1591,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" ht="63.75" customHeight="1">
@@ -1599,10 +1602,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="13" ht="45" customHeight="1"/>
@@ -1621,7 +1624,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3" ht="27.100000000000001">
@@ -1735,7 +1738,7 @@
       </x:c>
       <x:c r="B6" s="11"/>
       <x:c r="C6" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -2075,7 +2078,7 @@
       </x:c>
       <x:c r="B48" s="11"/>
       <x:c r="C48" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3" ht="24.25">
